--- a/results/tests_results/df_market_signals_2024-01-01.xlsx
+++ b/results/tests_results/df_market_signals_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,20 +450,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>y_tests</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>y_tests</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>y_pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
@@ -477,16 +472,13 @@
         <v>8.426</v>
       </c>
       <c r="C2" t="n">
-        <v>8.279999999999999</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +489,13 @@
         <v>8.32</v>
       </c>
       <c r="C3" t="n">
-        <v>8.460000000000001</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -517,15 +506,12 @@
         <v>8.460000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.348000000000001</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,15 +523,12 @@
         <v>8.513999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>8.44</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -557,15 +540,12 @@
         <v>8.602</v>
       </c>
       <c r="C6" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -577,15 +557,12 @@
         <v>8.414</v>
       </c>
       <c r="C7" t="n">
-        <v>8.528</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,15 +574,12 @@
         <v>8.401999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.404</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -617,16 +591,13 @@
         <v>8.279999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>8.454000000000001</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -637,15 +608,12 @@
         <v>8.288</v>
       </c>
       <c r="C10" t="n">
-        <v>8.314</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -657,15 +625,12 @@
         <v>8.252000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>8.27</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,15 +642,12 @@
         <v>8.141999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,15 +659,12 @@
         <v>8.093999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>8.050000000000001</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -717,15 +676,12 @@
         <v>8.084</v>
       </c>
       <c r="C14" t="n">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -737,16 +693,13 @@
         <v>7.996</v>
       </c>
       <c r="C15" t="n">
-        <v>8.140000000000001</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -757,16 +710,13 @@
         <v>8.172000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>8.093999999999999</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -777,15 +727,12 @@
         <v>8.134</v>
       </c>
       <c r="C17" t="n">
-        <v>8.183999999999999</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -797,15 +744,12 @@
         <v>8.226000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>8.141999999999999</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -817,15 +761,12 @@
         <v>8.09</v>
       </c>
       <c r="C19" t="n">
-        <v>8.186</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -837,15 +778,12 @@
         <v>8.092000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>8.112</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,16 +795,13 @@
         <v>8.114000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>8.106</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -877,15 +812,12 @@
         <v>8.614000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>8.182</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,15 +829,12 @@
         <v>8.676</v>
       </c>
       <c r="C23" t="n">
-        <v>8.67</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -917,15 +846,12 @@
         <v>8.673999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>8.65</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -937,15 +863,12 @@
         <v>8.962</v>
       </c>
       <c r="C25" t="n">
-        <v>8.784000000000001</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,15 +880,12 @@
         <v>8.933999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>8.99</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -977,15 +897,12 @@
         <v>9.103999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>8.99</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,15 +914,12 @@
         <v>8.986000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>9.039999999999999</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1017,15 +931,12 @@
         <v>9.116</v>
       </c>
       <c r="C29" t="n">
-        <v>9.050000000000001</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1037,15 +948,12 @@
         <v>9.151999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>9.098000000000001</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1057,15 +965,12 @@
         <v>9.25</v>
       </c>
       <c r="C31" t="n">
-        <v>9.17</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1077,15 +982,12 @@
         <v>9.273999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>9.289999999999999</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1097,15 +999,12 @@
         <v>9.186</v>
       </c>
       <c r="C33" t="n">
-        <v>9.273999999999999</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,15 +1016,12 @@
         <v>9.042</v>
       </c>
       <c r="C34" t="n">
-        <v>9.202</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1137,16 +1033,13 @@
         <v>9.016</v>
       </c>
       <c r="C35" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1157,15 +1050,12 @@
         <v>9.026</v>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1177,16 +1067,13 @@
         <v>9.098000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>9.02</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1197,15 +1084,12 @@
         <v>9.294</v>
       </c>
       <c r="C38" t="n">
-        <v>9.130000000000001</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,15 +1101,12 @@
         <v>9.332000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>9.324</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1237,15 +1118,12 @@
         <v>9.43</v>
       </c>
       <c r="C40" t="n">
-        <v>9.343999999999999</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1257,15 +1135,12 @@
         <v>9.456</v>
       </c>
       <c r="C41" t="n">
-        <v>9.41</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1277,15 +1152,12 @@
         <v>9.369999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>9.432</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1297,15 +1169,12 @@
         <v>9.32</v>
       </c>
       <c r="C43" t="n">
-        <v>9.342000000000001</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1317,15 +1186,12 @@
         <v>9.186</v>
       </c>
       <c r="C44" t="n">
-        <v>9.294</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1337,15 +1203,12 @@
         <v>9.362</v>
       </c>
       <c r="C45" t="n">
-        <v>9.198</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1357,15 +1220,12 @@
         <v>9.414</v>
       </c>
       <c r="C46" t="n">
-        <v>9.358000000000001</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1377,15 +1237,12 @@
         <v>9.488</v>
       </c>
       <c r="C47" t="n">
-        <v>9.416</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1397,15 +1254,12 @@
         <v>9.662000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>9.470000000000001</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1417,15 +1271,12 @@
         <v>9.848000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>9.638</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1437,15 +1288,12 @@
         <v>9.898</v>
       </c>
       <c r="C50" t="n">
-        <v>9.872</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1457,15 +1305,12 @@
         <v>9.936</v>
       </c>
       <c r="C51" t="n">
-        <v>9.859999999999999</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,15 +1322,12 @@
         <v>10.195</v>
       </c>
       <c r="C52" t="n">
-        <v>9.952</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1497,15 +1339,12 @@
         <v>10.27</v>
       </c>
       <c r="C53" t="n">
-        <v>10.175</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1517,15 +1356,12 @@
         <v>10.19</v>
       </c>
       <c r="C54" t="n">
-        <v>10.275</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1537,15 +1373,12 @@
         <v>10.415</v>
       </c>
       <c r="C55" t="n">
-        <v>10.18</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1557,15 +1390,12 @@
         <v>10.385</v>
       </c>
       <c r="C56" t="n">
-        <v>10.42</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1577,15 +1407,12 @@
         <v>10.505</v>
       </c>
       <c r="C57" t="n">
-        <v>10.385</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1597,15 +1424,12 @@
         <v>10.525</v>
       </c>
       <c r="C58" t="n">
-        <v>10.515</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1617,15 +1441,12 @@
         <v>10.8</v>
       </c>
       <c r="C59" t="n">
-        <v>10.62</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1637,15 +1458,12 @@
         <v>10.9</v>
       </c>
       <c r="C60" t="n">
-        <v>10.8</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1657,15 +1475,12 @@
         <v>10.855</v>
       </c>
       <c r="C61" t="n">
-        <v>10.81</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1677,15 +1492,12 @@
         <v>10.84</v>
       </c>
       <c r="C62" t="n">
-        <v>10.835</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1697,15 +1509,12 @@
         <v>10.905</v>
       </c>
       <c r="C63" t="n">
-        <v>10.82</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1717,15 +1526,12 @@
         <v>11.04</v>
       </c>
       <c r="C64" t="n">
-        <v>10.905</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,15 +1543,12 @@
         <v>10.97</v>
       </c>
       <c r="C65" t="n">
-        <v>11.05</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1757,15 +1560,12 @@
         <v>11.05</v>
       </c>
       <c r="C66" t="n">
-        <v>11.015</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1777,15 +1577,12 @@
         <v>11.235</v>
       </c>
       <c r="C67" t="n">
-        <v>11.1</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1797,15 +1594,12 @@
         <v>11.005</v>
       </c>
       <c r="C68" t="n">
-        <v>11.135</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1817,16 +1611,13 @@
         <v>10.65</v>
       </c>
       <c r="C69" t="n">
-        <v>10.62</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1837,15 +1628,12 @@
         <v>10.48</v>
       </c>
       <c r="C70" t="n">
-        <v>10.65</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1857,15 +1645,12 @@
         <v>10.425</v>
       </c>
       <c r="C71" t="n">
-        <v>10.48</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1877,15 +1662,12 @@
         <v>10.12</v>
       </c>
       <c r="C72" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1897,15 +1679,12 @@
         <v>10.05</v>
       </c>
       <c r="C73" t="n">
-        <v>10.055</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1917,15 +1696,12 @@
         <v>10.17</v>
       </c>
       <c r="C74" t="n">
-        <v>9.94</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1937,15 +1713,12 @@
         <v>9.962</v>
       </c>
       <c r="C75" t="n">
-        <v>10.035</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1957,15 +1730,12 @@
         <v>10.22</v>
       </c>
       <c r="C76" t="n">
-        <v>9.965999999999999</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1977,15 +1747,12 @@
         <v>10.42</v>
       </c>
       <c r="C77" t="n">
-        <v>10.29</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,15 +1764,12 @@
         <v>10.205</v>
       </c>
       <c r="C78" t="n">
-        <v>10.165</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2017,16 +1781,13 @@
         <v>10.43</v>
       </c>
       <c r="C79" t="n">
-        <v>10.295</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2037,15 +1798,12 @@
         <v>10.66</v>
       </c>
       <c r="C80" t="n">
-        <v>10.48</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2057,15 +1815,12 @@
         <v>10.55</v>
       </c>
       <c r="C81" t="n">
-        <v>10.68</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2077,15 +1832,12 @@
         <v>10.505</v>
       </c>
       <c r="C82" t="n">
-        <v>10.585</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2097,15 +1849,12 @@
         <v>10.985</v>
       </c>
       <c r="C83" t="n">
-        <v>10.545</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2117,15 +1866,218 @@
         <v>10.9</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10.175</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B86" t="n">
+        <v>9.784000000000001</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B87" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B89" t="n">
+        <v>10.195</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B90" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B91" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B93" t="n">
+        <v>9.724</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B95" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/tests_results/df_market_signals_2024-01-01.xlsx
+++ b/results/tests_results/df_market_signals_2024-01-01.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>y_preds</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -469,10 +469,10 @@
         <v>45293</v>
       </c>
       <c r="B2" t="n">
-        <v>8.426</v>
+        <v>4742.8301</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -486,10 +486,10 @@
         <v>45294</v>
       </c>
       <c r="B3" t="n">
-        <v>8.32</v>
+        <v>4704.8101</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>45295</v>
       </c>
       <c r="B4" t="n">
-        <v>8.460000000000001</v>
+        <v>4688.6802</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>45296</v>
       </c>
       <c r="B5" t="n">
-        <v>8.513999999999999</v>
+        <v>4697.2402</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>45299</v>
       </c>
       <c r="B6" t="n">
-        <v>8.602</v>
+        <v>4763.54</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>45300</v>
       </c>
       <c r="B7" t="n">
-        <v>8.414</v>
+        <v>4756.5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -571,10 +571,10 @@
         <v>45301</v>
       </c>
       <c r="B8" t="n">
-        <v>8.401999999999999</v>
+        <v>4783.4502</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>45302</v>
       </c>
       <c r="B9" t="n">
-        <v>8.279999999999999</v>
+        <v>4780.2402</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -605,41 +605,41 @@
         <v>45303</v>
       </c>
       <c r="B10" t="n">
-        <v>8.288</v>
+        <v>4783.8301</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B11" t="n">
-        <v>8.252000000000001</v>
+        <v>4765.98</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B12" t="n">
-        <v>8.141999999999999</v>
+        <v>4739.21</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B13" t="n">
-        <v>8.093999999999999</v>
+        <v>4780.9399</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B14" t="n">
-        <v>8.084</v>
+        <v>4839.8101</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -687,27 +687,27 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B15" t="n">
-        <v>7.996</v>
+        <v>4850.4302</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B16" t="n">
-        <v>8.172000000000001</v>
+        <v>4864.6001</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -716,18 +716,18 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B17" t="n">
-        <v>8.134</v>
+        <v>4868.5498</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B18" t="n">
-        <v>8.226000000000001</v>
+        <v>4894.1602</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B19" t="n">
-        <v>8.09</v>
+        <v>4890.9702</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B20" t="n">
-        <v>8.092000000000001</v>
+        <v>4927.9302</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B21" t="n">
-        <v>8.114000000000001</v>
+        <v>4924.9702</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -806,13 +806,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B22" t="n">
-        <v>8.614000000000001</v>
+        <v>4845.6499</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -823,13 +823,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B23" t="n">
-        <v>8.676</v>
+        <v>4906.1899</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B24" t="n">
-        <v>8.673999999999999</v>
+        <v>4958.6099</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B25" t="n">
-        <v>8.962</v>
+        <v>4942.8101</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B26" t="n">
-        <v>8.933999999999999</v>
+        <v>4954.23</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B27" t="n">
-        <v>9.103999999999999</v>
+        <v>4995.0601</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -908,10 +908,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B28" t="n">
-        <v>8.986000000000001</v>
+        <v>4997.9102</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B29" t="n">
-        <v>9.116</v>
+        <v>5026.6099</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B30" t="n">
-        <v>9.151999999999999</v>
+        <v>5021.8398</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B31" t="n">
-        <v>9.25</v>
+        <v>4953.1699</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B32" t="n">
-        <v>9.273999999999999</v>
+        <v>5000.6201</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -993,13 +993,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B33" t="n">
-        <v>9.186</v>
+        <v>5029.73</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B34" t="n">
-        <v>9.042</v>
+        <v>5005.5698</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B35" t="n">
-        <v>9.016</v>
+        <v>4975.5098</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B36" t="n">
-        <v>9.026</v>
+        <v>4981.7998</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="B37" t="n">
-        <v>9.098000000000001</v>
+        <v>5087.0298</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B38" t="n">
-        <v>9.294</v>
+        <v>5088.7998</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1095,10 +1095,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B39" t="n">
-        <v>9.332000000000001</v>
+        <v>5069.5298</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1112,27 +1112,27 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B40" t="n">
-        <v>9.43</v>
+        <v>5078.1802</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B41" t="n">
-        <v>9.456</v>
+        <v>5069.7598</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -1141,15 +1141,15 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B42" t="n">
-        <v>9.369999999999999</v>
+        <v>5096.27</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B43" t="n">
-        <v>9.32</v>
+        <v>5137.0801</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B44" t="n">
-        <v>9.186</v>
+        <v>5130.9502</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B45" t="n">
-        <v>9.362</v>
+        <v>5078.6499</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B46" t="n">
-        <v>9.414</v>
+        <v>5104.7598</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B47" t="n">
-        <v>9.488</v>
+        <v>5157.3599</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1248,33 +1248,33 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B48" t="n">
-        <v>9.662000000000001</v>
+        <v>5123.6899</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B49" t="n">
-        <v>9.848000000000001</v>
+        <v>5117.9399</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1282,30 +1282,30 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B50" t="n">
-        <v>9.898</v>
+        <v>5175.27</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B51" t="n">
-        <v>9.936</v>
+        <v>5165.3101</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B52" t="n">
-        <v>10.195</v>
+        <v>5150.48</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B53" t="n">
-        <v>10.27</v>
+        <v>5117.0898</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B54" t="n">
-        <v>10.19</v>
+        <v>5149.4199</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B55" t="n">
-        <v>10.415</v>
+        <v>5178.5098</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B56" t="n">
-        <v>10.385</v>
+        <v>5224.6201</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B57" t="n">
-        <v>10.505</v>
+        <v>5241.5298</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B58" t="n">
-        <v>10.525</v>
+        <v>5234.1802</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B59" t="n">
-        <v>10.8</v>
+        <v>5218.1899</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B60" t="n">
-        <v>10.9</v>
+        <v>5203.5801</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B61" t="n">
-        <v>10.855</v>
+        <v>5248.4902</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B62" t="n">
-        <v>10.84</v>
+        <v>5254.3501</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1503,27 +1503,27 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="B63" t="n">
-        <v>10.905</v>
+        <v>5243.77</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45379</v>
+        <v>45384</v>
       </c>
       <c r="B64" t="n">
-        <v>11.04</v>
+        <v>5205.8101</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1532,18 +1532,18 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B65" t="n">
-        <v>10.97</v>
+        <v>5211.4902</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B66" t="n">
-        <v>11.05</v>
+        <v>5147.21</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B67" t="n">
-        <v>11.235</v>
+        <v>5204.3398</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B68" t="n">
-        <v>11.005</v>
+        <v>5202.3901</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B69" t="n">
-        <v>10.65</v>
+        <v>5209.9102</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B70" t="n">
-        <v>10.48</v>
+        <v>5160.6401</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B71" t="n">
-        <v>10.425</v>
+        <v>5199.0601</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1656,47 +1656,47 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B72" t="n">
-        <v>10.12</v>
+        <v>5123.4102</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B73" t="n">
-        <v>10.05</v>
+        <v>5061.8198</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B74" t="n">
-        <v>10.17</v>
+        <v>5051.4102</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B75" t="n">
-        <v>9.962</v>
+        <v>5022.21</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1724,13 +1724,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B76" t="n">
-        <v>10.22</v>
+        <v>5011.1201</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B77" t="n">
-        <v>10.42</v>
+        <v>4967.23</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="B78" t="n">
-        <v>10.205</v>
+        <v>5010.6001</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B79" t="n">
-        <v>10.43</v>
+        <v>5070.5498</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B80" t="n">
-        <v>10.66</v>
+        <v>5071.6299</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1809,27 +1809,27 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B81" t="n">
-        <v>10.55</v>
+        <v>5048.4199</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B82" t="n">
-        <v>10.505</v>
+        <v>5099.96</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1838,18 +1838,18 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B83" t="n">
-        <v>10.985</v>
+        <v>5116.1699</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B84" t="n">
-        <v>10.9</v>
+        <v>5035.6899</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1877,10 +1877,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B85" t="n">
-        <v>10.175</v>
+        <v>5018.3901</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -1897,7 +1897,7 @@
         <v>45414</v>
       </c>
       <c r="B86" t="n">
-        <v>9.784000000000001</v>
+        <v>5064.2002</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1914,16 +1914,16 @@
         <v>45415</v>
       </c>
       <c r="B87" t="n">
-        <v>9.85</v>
+        <v>5127.79</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1931,13 +1931,13 @@
         <v>45418</v>
       </c>
       <c r="B88" t="n">
-        <v>9.84</v>
+        <v>5180.7402</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -1948,13 +1948,13 @@
         <v>45419</v>
       </c>
       <c r="B89" t="n">
-        <v>10.195</v>
+        <v>5187.7002</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>45420</v>
       </c>
       <c r="B90" t="n">
-        <v>10.29</v>
+        <v>5187.6699</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>45421</v>
       </c>
       <c r="B91" t="n">
-        <v>9.6</v>
+        <v>5214.0801</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>45422</v>
       </c>
       <c r="B92" t="n">
-        <v>9.710000000000001</v>
+        <v>5222.6802</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>45425</v>
       </c>
       <c r="B93" t="n">
-        <v>9.724</v>
+        <v>5221.4199</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2033,16 +2033,16 @@
         <v>45426</v>
       </c>
       <c r="B94" t="n">
-        <v>9.9</v>
+        <v>5246.6802</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -2050,16 +2050,16 @@
         <v>45427</v>
       </c>
       <c r="B95" t="n">
-        <v>10.2</v>
+        <v>5308.1499</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2067,13 +2067,13 @@
         <v>45428</v>
       </c>
       <c r="B96" t="n">
-        <v>9.974</v>
+        <v>5297.1001</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>

--- a/results/tests_results/df_market_signals_2024-01-01.xlsx
+++ b/results/tests_results/df_market_signals_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,15 +450,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>y_tests</t>
+          <t>y_mavgs</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>y_target</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>y_preds</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>y_combi</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
@@ -469,7 +479,7 @@
         <v>45293</v>
       </c>
       <c r="B2" t="n">
-        <v>4742.8301</v>
+        <v>8.426</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -478,6 +488,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -486,16 +502,22 @@
         <v>45294</v>
       </c>
       <c r="B3" t="n">
-        <v>4704.8101</v>
+        <v>8.32</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +525,7 @@
         <v>45295</v>
       </c>
       <c r="B4" t="n">
-        <v>4688.6802</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -512,6 +534,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -520,7 +548,7 @@
         <v>45296</v>
       </c>
       <c r="B5" t="n">
-        <v>4697.2402</v>
+        <v>8.513999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -529,6 +557,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,15 +571,21 @@
         <v>45299</v>
       </c>
       <c r="B6" t="n">
-        <v>4763.54</v>
+        <v>8.602</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -554,15 +594,21 @@
         <v>45300</v>
       </c>
       <c r="B7" t="n">
-        <v>4756.5</v>
+        <v>8.414</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -571,15 +617,21 @@
         <v>45301</v>
       </c>
       <c r="B8" t="n">
-        <v>4783.4502</v>
+        <v>8.401999999999999</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -588,15 +640,21 @@
         <v>45302</v>
       </c>
       <c r="B9" t="n">
-        <v>4780.2402</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,7 +663,7 @@
         <v>45303</v>
       </c>
       <c r="B10" t="n">
-        <v>4783.8301</v>
+        <v>8.288</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -614,100 +672,136 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45307</v>
+        <v>45306</v>
       </c>
       <c r="B11" t="n">
-        <v>4765.98</v>
+        <v>8.252000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45308</v>
+        <v>45307</v>
       </c>
       <c r="B12" t="n">
-        <v>4739.21</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45309</v>
+        <v>45308</v>
       </c>
       <c r="B13" t="n">
-        <v>4780.9399</v>
+        <v>8.093999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="B14" t="n">
-        <v>4839.8101</v>
+        <v>8.084</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45313</v>
+        <v>45310</v>
       </c>
       <c r="B15" t="n">
-        <v>4850.4302</v>
+        <v>7.996</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45314</v>
+        <v>45313</v>
       </c>
       <c r="B16" t="n">
-        <v>4864.6001</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -716,15 +810,21 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="B17" t="n">
-        <v>4868.5498</v>
+        <v>8.134</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -733,66 +833,90 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="B18" t="n">
-        <v>4894.1602</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45317</v>
+        <v>45316</v>
       </c>
       <c r="B19" t="n">
-        <v>4890.9702</v>
+        <v>8.09</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45320</v>
+        <v>45317</v>
       </c>
       <c r="B20" t="n">
-        <v>4927.9302</v>
+        <v>8.092000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45321</v>
+        <v>45320</v>
       </c>
       <c r="B21" t="n">
-        <v>4924.9702</v>
+        <v>8.114000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -801,15 +925,21 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="B22" t="n">
-        <v>4845.6499</v>
+        <v>8.614000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -818,15 +948,21 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B23" t="n">
-        <v>4906.1899</v>
+        <v>8.676</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -835,32 +971,44 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="B24" t="n">
-        <v>4958.6099</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45327</v>
+        <v>45324</v>
       </c>
       <c r="B25" t="n">
-        <v>4942.8101</v>
+        <v>8.962</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -869,15 +1017,21 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45328</v>
+        <v>45327</v>
       </c>
       <c r="B26" t="n">
-        <v>4954.23</v>
+        <v>8.933999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -886,15 +1040,21 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="B27" t="n">
-        <v>4995.0601</v>
+        <v>9.103999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -903,15 +1063,21 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="B28" t="n">
-        <v>4997.9102</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -920,49 +1086,67 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="B29" t="n">
-        <v>5026.6099</v>
+        <v>9.116</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45334</v>
+        <v>45331</v>
       </c>
       <c r="B30" t="n">
-        <v>5021.8398</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45335</v>
+        <v>45334</v>
       </c>
       <c r="B31" t="n">
-        <v>4953.1699</v>
+        <v>9.25</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -971,100 +1155,136 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45336</v>
+        <v>45335</v>
       </c>
       <c r="B32" t="n">
-        <v>5000.6201</v>
+        <v>9.273999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45337</v>
+        <v>45336</v>
       </c>
       <c r="B33" t="n">
-        <v>5029.73</v>
+        <v>9.186</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B34" t="n">
-        <v>5005.5698</v>
+        <v>9.042</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45342</v>
+        <v>45338</v>
       </c>
       <c r="B35" t="n">
-        <v>4975.5098</v>
+        <v>9.016</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45343</v>
+        <v>45341</v>
       </c>
       <c r="B36" t="n">
-        <v>4981.7998</v>
+        <v>9.026</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B37" t="n">
-        <v>5087.0298</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1073,32 +1293,44 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B38" t="n">
-        <v>5088.7998</v>
+        <v>9.294</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45348</v>
+        <v>45344</v>
       </c>
       <c r="B39" t="n">
-        <v>5069.5298</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1107,83 +1339,113 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45349</v>
+        <v>45345</v>
       </c>
       <c r="B40" t="n">
-        <v>5078.1802</v>
+        <v>9.43</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45350</v>
+        <v>45348</v>
       </c>
       <c r="B41" t="n">
-        <v>5069.7598</v>
+        <v>9.456</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45351</v>
+        <v>45349</v>
       </c>
       <c r="B42" t="n">
-        <v>5096.27</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="B43" t="n">
-        <v>5137.0801</v>
+        <v>9.32</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45355</v>
+        <v>45351</v>
       </c>
       <c r="B44" t="n">
-        <v>5130.9502</v>
+        <v>9.186</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1192,15 +1454,21 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45356</v>
+        <v>45352</v>
       </c>
       <c r="B45" t="n">
-        <v>5078.6499</v>
+        <v>9.362</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1209,15 +1477,21 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45357</v>
+        <v>45355</v>
       </c>
       <c r="B46" t="n">
-        <v>5104.7598</v>
+        <v>9.414</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1226,117 +1500,159 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45358</v>
+        <v>45356</v>
       </c>
       <c r="B47" t="n">
-        <v>5157.3599</v>
+        <v>9.488</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45359</v>
+        <v>45357</v>
       </c>
       <c r="B48" t="n">
-        <v>5123.6899</v>
+        <v>9.662000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45362</v>
+        <v>45358</v>
       </c>
       <c r="B49" t="n">
-        <v>5117.9399</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45363</v>
+        <v>45359</v>
       </c>
       <c r="B50" t="n">
-        <v>5175.27</v>
+        <v>9.898</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45364</v>
+        <v>45362</v>
       </c>
       <c r="B51" t="n">
-        <v>5165.3101</v>
+        <v>9.936</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45365</v>
+        <v>45363</v>
       </c>
       <c r="B52" t="n">
-        <v>5150.48</v>
+        <v>10.195</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45366</v>
+        <v>45364</v>
       </c>
       <c r="B53" t="n">
-        <v>5117.0898</v>
+        <v>10.27</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1345,15 +1661,21 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45369</v>
+        <v>45365</v>
       </c>
       <c r="B54" t="n">
-        <v>5149.4199</v>
+        <v>10.19</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1362,15 +1684,21 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45370</v>
+        <v>45366</v>
       </c>
       <c r="B55" t="n">
-        <v>5178.5098</v>
+        <v>10.415</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1379,15 +1707,21 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45371</v>
+        <v>45369</v>
       </c>
       <c r="B56" t="n">
-        <v>5224.6201</v>
+        <v>10.385</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1396,66 +1730,90 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45372</v>
+        <v>45370</v>
       </c>
       <c r="B57" t="n">
-        <v>5241.5298</v>
+        <v>10.505</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45373</v>
+        <v>45371</v>
       </c>
       <c r="B58" t="n">
-        <v>5234.1802</v>
+        <v>10.525</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45376</v>
+        <v>45372</v>
       </c>
       <c r="B59" t="n">
-        <v>5218.1899</v>
+        <v>10.8</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="B60" t="n">
-        <v>5203.5801</v>
+        <v>10.9</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1464,15 +1822,21 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45378</v>
+        <v>45376</v>
       </c>
       <c r="B61" t="n">
-        <v>5248.4902</v>
+        <v>10.855</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1481,49 +1845,67 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45379</v>
+        <v>45377</v>
       </c>
       <c r="B62" t="n">
-        <v>5254.3501</v>
+        <v>10.84</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45383</v>
+        <v>45378</v>
       </c>
       <c r="B63" t="n">
-        <v>5243.77</v>
+        <v>10.905</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45384</v>
+        <v>45379</v>
       </c>
       <c r="B64" t="n">
-        <v>5205.8101</v>
+        <v>11.04</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1533,31 +1915,43 @@
       </c>
       <c r="E64" t="n">
         <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B65" t="n">
-        <v>5211.4902</v>
+        <v>10.97</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B66" t="n">
-        <v>5147.21</v>
+        <v>11.05</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1566,100 +1960,136 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B67" t="n">
-        <v>5204.3398</v>
+        <v>11.235</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B68" t="n">
-        <v>5202.3901</v>
+        <v>11.005</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B69" t="n">
-        <v>5209.9102</v>
+        <v>10.65</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B70" t="n">
-        <v>5160.6401</v>
+        <v>10.48</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45393</v>
+        <v>45392</v>
       </c>
       <c r="B71" t="n">
-        <v>5199.0601</v>
+        <v>10.425</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="B72" t="n">
-        <v>5123.4102</v>
+        <v>10.12</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1668,49 +2098,67 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B73" t="n">
-        <v>5061.8198</v>
+        <v>10.05</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B74" t="n">
-        <v>5051.4102</v>
+        <v>10.17</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45399</v>
+        <v>45398</v>
       </c>
       <c r="B75" t="n">
-        <v>5022.21</v>
+        <v>9.962</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1719,32 +2167,44 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45400</v>
+        <v>45399</v>
       </c>
       <c r="B76" t="n">
-        <v>5011.1201</v>
+        <v>10.22</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
       <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B77" t="n">
-        <v>4967.23</v>
+        <v>10.42</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -1753,15 +2213,21 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B78" t="n">
-        <v>5010.6001</v>
+        <v>10.205</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1771,14 +2237,20 @@
       </c>
       <c r="E78" t="n">
         <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B79" t="n">
-        <v>5070.5498</v>
+        <v>10.43</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1787,49 +2259,67 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B80" t="n">
-        <v>5071.6299</v>
+        <v>10.66</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
       </c>
       <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B81" t="n">
-        <v>5048.4199</v>
+        <v>10.55</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B82" t="n">
-        <v>5099.96</v>
+        <v>10.505</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -1838,57 +2328,81 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B83" t="n">
-        <v>5116.1699</v>
+        <v>10.985</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B84" t="n">
-        <v>5035.6899</v>
+        <v>10.9</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B85" t="n">
-        <v>5018.3901</v>
+        <v>10.175</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1897,15 +2411,21 @@
         <v>45414</v>
       </c>
       <c r="B86" t="n">
-        <v>5064.2002</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1914,15 +2434,21 @@
         <v>45415</v>
       </c>
       <c r="B87" t="n">
-        <v>5127.79</v>
+        <v>9.85</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1931,15 +2457,21 @@
         <v>45418</v>
       </c>
       <c r="B88" t="n">
-        <v>5180.7402</v>
+        <v>9.84</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1948,16 +2480,22 @@
         <v>45419</v>
       </c>
       <c r="B89" t="n">
-        <v>5187.7002</v>
+        <v>10.195</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -1965,15 +2503,21 @@
         <v>45420</v>
       </c>
       <c r="B90" t="n">
-        <v>5187.6699</v>
+        <v>10.29</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1982,15 +2526,21 @@
         <v>45421</v>
       </c>
       <c r="B91" t="n">
-        <v>5214.0801</v>
+        <v>9.6</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1999,15 +2549,21 @@
         <v>45422</v>
       </c>
       <c r="B92" t="n">
-        <v>5222.6802</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2016,15 +2572,21 @@
         <v>45425</v>
       </c>
       <c r="B93" t="n">
-        <v>5221.4199</v>
+        <v>9.724</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
       </c>
       <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2033,16 +2595,22 @@
         <v>45426</v>
       </c>
       <c r="B94" t="n">
-        <v>5246.6802</v>
+        <v>9.9</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2050,16 +2618,22 @@
         <v>45427</v>
       </c>
       <c r="B95" t="n">
-        <v>5308.1499</v>
+        <v>10.2</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2067,7 +2641,7 @@
         <v>45428</v>
       </c>
       <c r="B96" t="n">
-        <v>5297.1001</v>
+        <v>9.974</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -2077,6 +2651,12 @@
       </c>
       <c r="E96" t="n">
         <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_market_signals_2024-01-01.xlsx
+++ b/results/tests_results/df_market_signals_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,22 +479,22 @@
         <v>45293</v>
       </c>
       <c r="B2" t="n">
-        <v>8.426</v>
+        <v>4742.8301</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         <v>45294</v>
       </c>
       <c r="B3" t="n">
-        <v>8.32</v>
+        <v>4704.8101</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +525,19 @@
         <v>45295</v>
       </c>
       <c r="B4" t="n">
-        <v>8.460000000000001</v>
+        <v>4688.6802</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>45296</v>
       </c>
       <c r="B5" t="n">
-        <v>8.513999999999999</v>
+        <v>4697.2402</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>45299</v>
       </c>
       <c r="B6" t="n">
-        <v>8.602</v>
+        <v>4763.54</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -594,19 +594,19 @@
         <v>45300</v>
       </c>
       <c r="B7" t="n">
-        <v>8.414</v>
+        <v>4756.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>45301</v>
       </c>
       <c r="B8" t="n">
-        <v>8.401999999999999</v>
+        <v>4783.4502</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>45302</v>
       </c>
       <c r="B9" t="n">
-        <v>8.279999999999999</v>
+        <v>4780.2402</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -663,19 +663,19 @@
         <v>45303</v>
       </c>
       <c r="B10" t="n">
-        <v>8.288</v>
+        <v>4783.8301</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B11" t="n">
-        <v>8.252000000000001</v>
+        <v>4765.98</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B12" t="n">
-        <v>8.141999999999999</v>
+        <v>4739.21</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -729,22 +729,22 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B13" t="n">
-        <v>8.093999999999999</v>
+        <v>4780.9399</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -752,22 +752,22 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B14" t="n">
-        <v>8.084</v>
+        <v>4839.8101</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -775,22 +775,22 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B15" t="n">
-        <v>7.996</v>
+        <v>4850.4302</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B16" t="n">
-        <v>8.172000000000001</v>
+        <v>4864.6001</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B17" t="n">
-        <v>8.134</v>
+        <v>4868.5498</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -833,27 +833,27 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B18" t="n">
-        <v>8.226000000000001</v>
+        <v>4894.1602</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -867,22 +867,22 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B19" t="n">
-        <v>8.09</v>
+        <v>4890.9702</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -890,22 +890,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B20" t="n">
-        <v>8.092000000000001</v>
+        <v>4927.9302</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -913,45 +913,45 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B21" t="n">
-        <v>8.114000000000001</v>
+        <v>4924.9702</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B22" t="n">
-        <v>8.614000000000001</v>
+        <v>4845.6499</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B23" t="n">
-        <v>8.676</v>
+        <v>4906.1899</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B24" t="n">
-        <v>8.673999999999999</v>
+        <v>4958.6099</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B25" t="n">
-        <v>8.962</v>
+        <v>4942.8101</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B26" t="n">
-        <v>8.933999999999999</v>
+        <v>4954.23</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B27" t="n">
-        <v>9.103999999999999</v>
+        <v>4995.0601</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B28" t="n">
-        <v>8.986000000000001</v>
+        <v>4997.9102</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B29" t="n">
-        <v>9.116</v>
+        <v>5026.6099</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -1120,16 +1120,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B30" t="n">
-        <v>9.151999999999999</v>
+        <v>5021.8398</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1143,22 +1143,22 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B31" t="n">
-        <v>9.25</v>
+        <v>4953.1699</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1166,16 +1166,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B32" t="n">
-        <v>9.273999999999999</v>
+        <v>5000.6201</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1189,36 +1189,36 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B33" t="n">
-        <v>9.186</v>
+        <v>5029.73</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B34" t="n">
-        <v>9.042</v>
+        <v>5005.5698</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1227,18 +1227,18 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B35" t="n">
-        <v>9.016</v>
+        <v>4975.5098</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B36" t="n">
-        <v>9.026</v>
+        <v>4981.7998</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1270,21 +1270,21 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="B37" t="n">
-        <v>9.098000000000001</v>
+        <v>5087.0298</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1304,10 +1304,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B38" t="n">
-        <v>9.294</v>
+        <v>5088.7998</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B39" t="n">
-        <v>9.332000000000001</v>
+        <v>5069.5298</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1339,33 +1339,33 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B40" t="n">
-        <v>9.43</v>
+        <v>5078.1802</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1373,45 +1373,45 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B41" t="n">
-        <v>9.456</v>
+        <v>5069.7598</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B42" t="n">
-        <v>9.369999999999999</v>
+        <v>5096.27</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1419,22 +1419,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B43" t="n">
-        <v>9.32</v>
+        <v>5137.0801</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1442,22 +1442,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B44" t="n">
-        <v>9.186</v>
+        <v>5130.9502</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1465,22 +1465,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B45" t="n">
-        <v>9.362</v>
+        <v>5078.6499</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1488,22 +1488,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B46" t="n">
-        <v>9.414</v>
+        <v>5104.7598</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B47" t="n">
-        <v>9.488</v>
+        <v>5157.3599</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B48" t="n">
-        <v>9.662000000000001</v>
+        <v>5123.6899</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1546,21 +1546,21 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B49" t="n">
-        <v>9.848000000000001</v>
+        <v>5117.9399</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B50" t="n">
-        <v>9.898</v>
+        <v>5175.27</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B51" t="n">
-        <v>9.936</v>
+        <v>5165.3101</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1626,22 +1626,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B52" t="n">
-        <v>10.195</v>
+        <v>5150.48</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B53" t="n">
-        <v>10.27</v>
+        <v>5117.0898</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B54" t="n">
-        <v>10.19</v>
+        <v>5149.4199</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1687,18 +1687,18 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B55" t="n">
-        <v>10.415</v>
+        <v>5178.5098</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B56" t="n">
-        <v>10.385</v>
+        <v>5224.6201</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B57" t="n">
-        <v>10.505</v>
+        <v>5241.5298</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1764,16 +1764,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B58" t="n">
-        <v>10.525</v>
+        <v>5234.1802</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1787,22 +1787,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B59" t="n">
-        <v>10.8</v>
+        <v>5218.1899</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B60" t="n">
-        <v>10.9</v>
+        <v>5203.5801</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B61" t="n">
-        <v>10.855</v>
+        <v>5248.4902</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B62" t="n">
-        <v>10.84</v>
+        <v>5254.3501</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1879,16 +1879,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="B63" t="n">
-        <v>10.905</v>
+        <v>5243.77</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1902,22 +1902,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45379</v>
+        <v>45384</v>
       </c>
       <c r="B64" t="n">
-        <v>11.04</v>
+        <v>5205.8101</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B65" t="n">
-        <v>10.97</v>
+        <v>5211.4902</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -1948,22 +1948,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B66" t="n">
-        <v>11.05</v>
+        <v>5147.21</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B67" t="n">
-        <v>11.235</v>
+        <v>5204.3398</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -1994,22 +1994,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B68" t="n">
-        <v>11.005</v>
+        <v>5202.3901</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B69" t="n">
-        <v>10.65</v>
+        <v>5209.9102</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2040,16 +2040,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B70" t="n">
-        <v>10.48</v>
+        <v>5160.6401</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2063,22 +2063,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B71" t="n">
-        <v>10.425</v>
+        <v>5199.0601</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B72" t="n">
-        <v>10.12</v>
+        <v>5123.4102</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B73" t="n">
-        <v>10.05</v>
+        <v>5061.8198</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B74" t="n">
-        <v>10.17</v>
+        <v>5051.4102</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B75" t="n">
-        <v>9.962</v>
+        <v>5022.21</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2178,22 +2178,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B76" t="n">
-        <v>10.22</v>
+        <v>5011.1201</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2201,22 +2201,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B77" t="n">
-        <v>10.42</v>
+        <v>4967.23</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="B78" t="n">
-        <v>10.205</v>
+        <v>5010.6001</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -2239,18 +2239,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B79" t="n">
-        <v>10.43</v>
+        <v>5070.5498</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -2270,10 +2270,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B80" t="n">
-        <v>10.66</v>
+        <v>5071.6299</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B81" t="n">
-        <v>10.55</v>
+        <v>5048.4199</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -2305,21 +2305,21 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B82" t="n">
-        <v>10.505</v>
+        <v>5099.96</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -2328,27 +2328,27 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B83" t="n">
-        <v>10.985</v>
+        <v>5116.1699</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B84" t="n">
-        <v>10.9</v>
+        <v>5035.6899</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2377,18 +2377,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B85" t="n">
-        <v>10.175</v>
+        <v>5018.3901</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2411,22 +2411,22 @@
         <v>45414</v>
       </c>
       <c r="B86" t="n">
-        <v>9.784000000000001</v>
+        <v>5064.2002</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2434,19 +2434,19 @@
         <v>45415</v>
       </c>
       <c r="B87" t="n">
-        <v>9.85</v>
+        <v>5127.79</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2457,19 +2457,19 @@
         <v>45418</v>
       </c>
       <c r="B88" t="n">
-        <v>9.84</v>
+        <v>5180.7402</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>45419</v>
       </c>
       <c r="B89" t="n">
-        <v>10.195</v>
+        <v>5187.7002</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -2489,13 +2489,13 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>45420</v>
       </c>
       <c r="B90" t="n">
-        <v>10.29</v>
+        <v>5187.6699</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -2526,19 +2526,19 @@
         <v>45421</v>
       </c>
       <c r="B91" t="n">
-        <v>9.6</v>
+        <v>5214.0801</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2549,19 +2549,19 @@
         <v>45422</v>
       </c>
       <c r="B92" t="n">
-        <v>9.710000000000001</v>
+        <v>5222.6802</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2572,19 +2572,19 @@
         <v>45425</v>
       </c>
       <c r="B93" t="n">
-        <v>9.724</v>
+        <v>5221.4199</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>45426</v>
       </c>
       <c r="B94" t="n">
-        <v>9.9</v>
+        <v>5246.6802</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>45427</v>
       </c>
       <c r="B95" t="n">
-        <v>10.2</v>
+        <v>5308.1499</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>45428</v>
       </c>
       <c r="B96" t="n">
-        <v>9.974</v>
+        <v>5297.1001</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -2650,12 +2650,35 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5303.27</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/results/tests_results/df_market_signals_2024-01-01.xlsx
+++ b/results/tests_results/df_market_signals_2024-01-01.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,51 +473,98 @@
           <t>signal</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>day_g_returns</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>day_n_returns</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>b&amp;h_g_capital</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>str_capital</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>day_str_returns</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="B2" t="n">
-        <v>4742.8301</v>
+        <v>8.426</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="B3" t="n">
-        <v>4704.8101</v>
+        <v>8.32</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.01258010918585328</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.01458010918585328</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9874.198908141467</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9980</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.002000000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -525,22 +572,37 @@
         <v>45295</v>
       </c>
       <c r="B4" t="n">
-        <v>4688.6802</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01682692307692313</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01482692307692313</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10040.351293615</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10147</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01673346693386768</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +610,37 @@
         <v>45296</v>
       </c>
       <c r="B5" t="n">
-        <v>4697.2402</v>
+        <v>8.513999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.006382978723403987</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.004382978723403987</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10104.43864229765</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10211</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.006307282940770653</v>
       </c>
     </row>
     <row r="6">
@@ -571,22 +648,37 @@
         <v>45299</v>
       </c>
       <c r="B6" t="n">
-        <v>4763.54</v>
+        <v>8.602</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.01033591731266159</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.008335917312661591</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10208.8772845953</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10316</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01028302810694348</v>
       </c>
     </row>
     <row r="7">
@@ -594,22 +686,37 @@
         <v>45300</v>
       </c>
       <c r="B7" t="n">
-        <v>4756.5</v>
+        <v>8.414</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.02185538246919327</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.02385538246919328</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9985.75836695941</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.02384645211322223</v>
       </c>
     </row>
     <row r="8">
@@ -617,21 +724,36 @@
         <v>45301</v>
       </c>
       <c r="B8" t="n">
-        <v>4783.4502</v>
+        <v>8.401999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.001426194437841755</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.003426194437841755</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9971.516733918821</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -640,21 +762,36 @@
         <v>45302</v>
       </c>
       <c r="B9" t="n">
-        <v>4780.2402</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.01452035229707216</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.01652035229707216</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9826.72679800617</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -663,30 +800,45 @@
         <v>45303</v>
       </c>
       <c r="B10" t="n">
-        <v>4783.8301</v>
+        <v>8.288</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0009661835748793202</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.00103381642512068</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9836.221220033229</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45307</v>
+        <v>45306</v>
       </c>
       <c r="B11" t="n">
-        <v>4765.98</v>
+        <v>8.252000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -701,21 +853,36 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.004343629343629307</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.006343629343629307</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9793.496320911463</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45308</v>
+        <v>45307</v>
       </c>
       <c r="B12" t="n">
-        <v>4739.21</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -724,84 +891,144 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.0133301017935048</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.0153301017935048</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9662.948018039398</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45309</v>
+        <v>45308</v>
       </c>
       <c r="B13" t="n">
-        <v>4780.9399</v>
+        <v>8.093999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.005895357406042745</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.007895357406042745</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9605.981485877044</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="B14" t="n">
-        <v>4839.8101</v>
+        <v>8.084</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.001235483073881882</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.003235483073881882</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9594.113458343221</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45313</v>
+        <v>45310</v>
       </c>
       <c r="B15" t="n">
-        <v>4850.4302</v>
+        <v>7.996</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.01088570014844126</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.01288570014844126</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9489.674816045572</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10070</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45314</v>
+        <v>45313</v>
       </c>
       <c r="B16" t="n">
-        <v>4864.6001</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -816,15 +1043,30 @@
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02201100550275137</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02001100550275137</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9698.552100640871</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10049</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.002085402184707097</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="B17" t="n">
-        <v>4868.5498</v>
+        <v>8.134</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -833,96 +1075,156 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.004650024473813019</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.006650024473813019</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9653.453596012339</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10002</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.004677082296745905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="B18" t="n">
-        <v>4894.1602</v>
+        <v>8.226000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01131054831571188</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.009310548315711877</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9762.63944932352</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10115</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01129774045190968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45317</v>
+        <v>45316</v>
       </c>
       <c r="B19" t="n">
-        <v>4890.9702</v>
+        <v>8.09</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.01653294432287877</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.01853294432287877</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9601.234274863515</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9927</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.01858625803262481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45320</v>
+        <v>45317</v>
       </c>
       <c r="B20" t="n">
-        <v>4927.9302</v>
+        <v>8.092000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0002472187886279897</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.00175278121137201</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9603.60788037028</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9927</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45321</v>
+        <v>45320</v>
       </c>
       <c r="B21" t="n">
-        <v>4924.9702</v>
+        <v>8.114000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -931,38 +1233,68 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.002718734552644708</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0007187345526447082</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9629.717540944694</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9907</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.002014707363755419</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="B22" t="n">
-        <v>4845.6499</v>
+        <v>8.614000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0616218880946513</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0596218880946513</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10223.11891763589</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10517</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.06157262541637221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B23" t="n">
-        <v>4906.1899</v>
+        <v>8.676</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -978,14 +1310,29 @@
       </c>
       <c r="G23" t="n">
         <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.007197585326213174</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.005197585326213174</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10296.7006883456</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10592</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.00713131121042121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="B24" t="n">
-        <v>4958.6099</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1001,14 +1348,29 @@
       </c>
       <c r="G24" t="n">
         <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.0002305209774090544</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.002230520977409054</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10294.32708283883</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10589</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.0002832326283987996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45327</v>
+        <v>45324</v>
       </c>
       <c r="B25" t="n">
-        <v>4942.8101</v>
+        <v>8.962</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -1024,14 +1386,29 @@
       </c>
       <c r="G25" t="n">
         <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03320267465990323</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03120267465990323</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10636.12627581296</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10940</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.03314760600623279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45328</v>
+        <v>45327</v>
       </c>
       <c r="B26" t="n">
-        <v>4954.23</v>
+        <v>8.933999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -1047,14 +1424,29 @@
       </c>
       <c r="G26" t="n">
         <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.003124302611024365</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.005124302611024366</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10602.89579871825</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10905</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.003199268738574013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="B27" t="n">
-        <v>4995.0601</v>
+        <v>9.103999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -1070,14 +1462,29 @@
       </c>
       <c r="G27" t="n">
         <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01902843071412574</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01702843071412574</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10804.65226679325</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11112</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.01898211829436036</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="B28" t="n">
-        <v>4997.9102</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -1093,14 +1500,29 @@
       </c>
       <c r="G28" t="n">
         <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0129613356766255</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.0149613356766255</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10664.60954189413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10967</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.01304895608351331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="B29" t="n">
-        <v>5026.6099</v>
+        <v>9.116</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -1116,20 +1538,35 @@
       </c>
       <c r="G29" t="n">
         <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0144669485866904</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0124669485866904</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10818.89389983385</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11125</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01440685693443977</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45334</v>
+        <v>45331</v>
       </c>
       <c r="B30" t="n">
-        <v>5021.8398</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1139,86 +1576,146 @@
       </c>
       <c r="G30" t="n">
         <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.003949100482667722</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001949100482667722</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10861.61879895561</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11168</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.003865168539325836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45335</v>
+        <v>45334</v>
       </c>
       <c r="B31" t="n">
-        <v>4953.1699</v>
+        <v>9.25</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01070804195804209</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.008708041958042092</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10977.92546878709</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11287</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01065544412607444</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45336</v>
+        <v>45335</v>
       </c>
       <c r="B32" t="n">
-        <v>5000.6201</v>
+        <v>9.273999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.002594594594594435</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0005945945945944348</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11006.40873486826</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11316</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.002569327544963196</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45337</v>
+        <v>45336</v>
       </c>
       <c r="B33" t="n">
-        <v>5029.73</v>
+        <v>9.186</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.00948889368125938</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.01148889368125938</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10901.97009257061</v>
+      </c>
+      <c r="K33" t="n">
+        <v>11208</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.009544008483563071</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B34" t="n">
-        <v>5005.5698</v>
+        <v>9.042</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1227,18 +1724,33 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>-1</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.01567602873938601</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.01767602873938601</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10731.07049608355</v>
+      </c>
+      <c r="K34" t="n">
+        <v>11010</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.01766595289079231</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45342</v>
+        <v>45338</v>
       </c>
       <c r="B35" t="n">
-        <v>4975.5098</v>
+        <v>9.016</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1253,15 +1765,30 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.002875470028754656</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.004875470028754656</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10700.21362449561</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11010</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45343</v>
+        <v>45341</v>
       </c>
       <c r="B36" t="n">
-        <v>4981.7998</v>
+        <v>9.026</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1270,21 +1797,36 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.001109139307897022</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.0008908606921029776</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10712.08165202943</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11010</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B37" t="n">
-        <v>5087.0298</v>
+        <v>9.098000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -1299,15 +1841,30 @@
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.007976955461998836</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.005976955461998836</v>
+      </c>
+      <c r="J37" t="n">
+        <v>10797.53145027297</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10987</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.002089009990917323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B38" t="n">
-        <v>5088.7998</v>
+        <v>9.294</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -1323,14 +1880,29 @@
       </c>
       <c r="G38" t="n">
         <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.02154319630688062</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01954319630688062</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11030.14478993591</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11223</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.02147993082734145</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45348</v>
+        <v>45344</v>
       </c>
       <c r="B39" t="n">
-        <v>5069.5298</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -1339,50 +1911,80 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.004088659350118373</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.002088659350118373</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11075.24329456445</v>
+      </c>
+      <c r="K39" t="n">
+        <v>11268</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.00400962309542896</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45349</v>
+        <v>45345</v>
       </c>
       <c r="B40" t="n">
-        <v>5078.1802</v>
+        <v>9.43</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.01050150021431628</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.008501500214316284</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11191.54996439592</v>
+      </c>
+      <c r="K40" t="n">
+        <v>11386</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01047213347532838</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45350</v>
+        <v>45348</v>
       </c>
       <c r="B41" t="n">
-        <v>5069.7598</v>
+        <v>9.456</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1391,130 +1993,220 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.002757158006362559</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0007571580063625589</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11222.40683598386</v>
+      </c>
+      <c r="K41" t="n">
+        <v>11417</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.002722641840857243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45351</v>
+        <v>45349</v>
       </c>
       <c r="B42" t="n">
-        <v>5096.27</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.009094754653130366</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.01109475465313037</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11120.34179919297</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11290</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.01112376280984495</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45352</v>
+        <v>45350</v>
       </c>
       <c r="B43" t="n">
-        <v>5137.0801</v>
+        <v>9.32</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.005336179295624244</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.007336179295624244</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11061.00166152385</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11290</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45355</v>
+        <v>45351</v>
       </c>
       <c r="B44" t="n">
-        <v>5130.9502</v>
+        <v>9.186</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.01437768240343351</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.01637768240343351</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10901.97009257061</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11290</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45356</v>
+        <v>45352</v>
       </c>
       <c r="B45" t="n">
-        <v>5078.6499</v>
+        <v>9.362</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01915959068147188</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01715959068147188</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11110.84737716592</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11267</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.002037201062887517</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45357</v>
+        <v>45355</v>
       </c>
       <c r="B46" t="n">
-        <v>5104.7598</v>
+        <v>9.414</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.005554368724631553</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.003554368724631553</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11172.5611203418</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11329</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.005502795775272906</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45358</v>
+        <v>45356</v>
       </c>
       <c r="B47" t="n">
-        <v>5157.3599</v>
+        <v>9.488</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1530,14 +2222,29 @@
       </c>
       <c r="G47" t="n">
         <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.007860633099638914</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.005860633099638914</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11260.3845240921</v>
+      </c>
+      <c r="K47" t="n">
+        <v>11418</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.007855944920116542</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45359</v>
+        <v>45357</v>
       </c>
       <c r="B48" t="n">
-        <v>5123.6899</v>
+        <v>9.662000000000001</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1546,21 +2253,36 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01833895446880285</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.01633895446880285</v>
+      </c>
+      <c r="J48" t="n">
+        <v>11466.88820318063</v>
+      </c>
+      <c r="K48" t="n">
+        <v>11627</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01830443159922934</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45362</v>
+        <v>45358</v>
       </c>
       <c r="B49" t="n">
-        <v>5117.9399</v>
+        <v>9.848000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1569,21 +2291,36 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.01925067273856351</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.01725067273856351</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11687.63351530976</v>
+      </c>
+      <c r="K49" t="n">
+        <v>11850</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.01917949600068813</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45363</v>
+        <v>45359</v>
       </c>
       <c r="B50" t="n">
-        <v>5175.27</v>
+        <v>9.898</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1599,14 +2336,29 @@
       </c>
       <c r="G50" t="n">
         <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.005077173030056725</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.003077173030056725</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11746.97365297888</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11910</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.005063291139240533</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45364</v>
+        <v>45362</v>
       </c>
       <c r="B51" t="n">
-        <v>5165.3101</v>
+        <v>9.936</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -1622,63 +2374,108 @@
       </c>
       <c r="G51" t="n">
         <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.003839159426146654</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.001839159426146654</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11792.07215760741</v>
+      </c>
+      <c r="K51" t="n">
+        <v>11955</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.003778337531486153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45365</v>
+        <v>45363</v>
       </c>
       <c r="B52" t="n">
-        <v>5150.48</v>
+        <v>10.195</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.02606682769726243</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.02406682769726243</v>
+      </c>
+      <c r="J52" t="n">
+        <v>12099.45407073344</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12266</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.02601421999163533</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45366</v>
+        <v>45364</v>
       </c>
       <c r="B53" t="n">
-        <v>5117.0898</v>
+        <v>10.27</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.007356547327121099</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.005356547327121099</v>
+      </c>
+      <c r="J53" t="n">
+        <v>12188.46427723712</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12356</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.007337355291048508</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45369</v>
+        <v>45365</v>
       </c>
       <c r="B54" t="n">
-        <v>5149.4199</v>
+        <v>10.19</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1687,18 +2484,33 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.007789678675754641</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.009789678675754641</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12093.52005696653</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12259</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.007850437034639057</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45370</v>
+        <v>45366</v>
       </c>
       <c r="B55" t="n">
-        <v>5178.5098</v>
+        <v>10.415</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1714,14 +2526,29 @@
       </c>
       <c r="G55" t="n">
         <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02208047105004907</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.02008047105004906</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12360.55067647757</v>
+      </c>
+      <c r="K55" t="n">
+        <v>12529</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.02202463496206875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45371</v>
+        <v>45369</v>
       </c>
       <c r="B56" t="n">
-        <v>5224.6201</v>
+        <v>10.385</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1737,14 +2564,29 @@
       </c>
       <c r="G56" t="n">
         <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.002880460873739721</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.004880460873739721</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12324.9465938761</v>
+      </c>
+      <c r="K56" t="n">
+        <v>12492</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.002953148695027497</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45372</v>
+        <v>45370</v>
       </c>
       <c r="B57" t="n">
-        <v>5241.5298</v>
+        <v>10.505</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1760,20 +2602,35 @@
       </c>
       <c r="G57" t="n">
         <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01155512758786714</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.009555127587867142</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12467.36292428199</v>
+      </c>
+      <c r="K57" t="n">
+        <v>12636</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01152737752161381</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45373</v>
+        <v>45371</v>
       </c>
       <c r="B58" t="n">
-        <v>5234.1802</v>
+        <v>10.525</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1783,60 +2640,105 @@
       </c>
       <c r="G58" t="n">
         <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.001903855306996549</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-9.61446930034509e-05</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12491.09897934963</v>
+      </c>
+      <c r="K58" t="n">
+        <v>12660</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.001899335232668609</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45376</v>
+        <v>45372</v>
       </c>
       <c r="B59" t="n">
-        <v>5218.1899</v>
+        <v>10.8</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.02612826603325424</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.02412826603325424</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12817.46973652979</v>
+      </c>
+      <c r="K59" t="n">
+        <v>12990</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.02606635071090047</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="B60" t="n">
-        <v>5203.5801</v>
+        <v>10.9</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0092592592592593</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0072592592592593</v>
+      </c>
+      <c r="J60" t="n">
+        <v>12936.15001186803</v>
+      </c>
+      <c r="K60" t="n">
+        <v>13110</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.009237875288683695</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45378</v>
+        <v>45376</v>
       </c>
       <c r="B61" t="n">
-        <v>5248.4902</v>
+        <v>10.855</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1852,14 +2754,29 @@
       </c>
       <c r="G61" t="n">
         <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.004128440366972463</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.006128440366972463</v>
+      </c>
+      <c r="J61" t="n">
+        <v>12882.74388796582</v>
+      </c>
+      <c r="K61" t="n">
+        <v>13055</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.004195270785659844</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45379</v>
+        <v>45377</v>
       </c>
       <c r="B62" t="n">
-        <v>5254.3501</v>
+        <v>10.84</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1875,20 +2792,35 @@
       </c>
       <c r="G62" t="n">
         <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.001381851681252932</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-0.003381851681252932</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12864.94184666509</v>
+      </c>
+      <c r="K62" t="n">
+        <v>13036</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.001455381080045948</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45383</v>
+        <v>45378</v>
       </c>
       <c r="B63" t="n">
-        <v>5243.77</v>
+        <v>10.905</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1898,158 +2830,263 @@
       </c>
       <c r="G63" t="n">
         <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.005996309963099522</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.003996309963099522</v>
+      </c>
+      <c r="J63" t="n">
+        <v>12942.08402563494</v>
+      </c>
+      <c r="K63" t="n">
+        <v>13114</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.005983430500153375</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45384</v>
+        <v>45379</v>
       </c>
       <c r="B64" t="n">
-        <v>5205.8101</v>
+        <v>11.04</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.01237964236588729</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01037964236588729</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13102.30239734157</v>
+      </c>
+      <c r="K64" t="n">
+        <v>13276</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01235321030959291</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B65" t="n">
-        <v>5211.4902</v>
+        <v>10.97</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.006340579710144789</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.008340579710144789</v>
+      </c>
+      <c r="J65" t="n">
+        <v>13019.2262046048</v>
+      </c>
+      <c r="K65" t="n">
+        <v>13191</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.006402530882796076</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B66" t="n">
-        <v>5147.21</v>
+        <v>11.05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.007292616226071136</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.005292616226071136</v>
+      </c>
+      <c r="J66" t="n">
+        <v>13114.17042487539</v>
+      </c>
+      <c r="K66" t="n">
+        <v>13287</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.007277689333636594</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B67" t="n">
-        <v>5204.3398</v>
+        <v>11.235</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.01674208144796374</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.01474208144796374</v>
+      </c>
+      <c r="J67" t="n">
+        <v>13333.72893425113</v>
+      </c>
+      <c r="K67" t="n">
+        <v>13509</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.01670806051027318</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B68" t="n">
-        <v>5202.3901</v>
+        <v>11.005</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.0204717400979082</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-0.0224717400979082</v>
+      </c>
+      <c r="J68" t="n">
+        <v>13060.76430097318</v>
+      </c>
+      <c r="K68" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.02250351617440227</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B69" t="n">
-        <v>5209.9102</v>
+        <v>10.65</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-0.03225806451612911</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-0.03425806451612912</v>
+      </c>
+      <c r="J69" t="n">
+        <v>12639.44932352244</v>
+      </c>
+      <c r="K69" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B70" t="n">
-        <v>5160.6401</v>
+        <v>10.48</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2058,38 +3095,68 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.01596244131455393</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.01796244131455393</v>
+      </c>
+      <c r="J70" t="n">
+        <v>12437.69285544743</v>
+      </c>
+      <c r="K70" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45393</v>
+        <v>45392</v>
       </c>
       <c r="B71" t="n">
-        <v>5199.0601</v>
+        <v>10.425</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.005248091603053395</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.007248091603053395</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12372.4187040114</v>
+      </c>
+      <c r="K71" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="B72" t="n">
-        <v>5123.4102</v>
+        <v>10.12</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2104,15 +3171,30 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-0.02925659472422082</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.03125659472422082</v>
+      </c>
+      <c r="J72" t="n">
+        <v>12010.44386422977</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B73" t="n">
-        <v>5061.8198</v>
+        <v>10.05</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2127,15 +3209,30 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-0.006916996047430679</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-0.008916996047430679</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11927.367671493</v>
+      </c>
+      <c r="K73" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B74" t="n">
-        <v>5051.4102</v>
+        <v>10.17</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2150,107 +3247,182 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.01194029850746259</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.009940298507462588</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12069.78400189889</v>
+      </c>
+      <c r="K74" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45399</v>
+        <v>45398</v>
       </c>
       <c r="B75" t="n">
-        <v>5022.21</v>
+        <v>9.962</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.02045231071779752</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-0.02245231071779752</v>
+      </c>
+      <c r="J75" t="n">
+        <v>11822.92902919535</v>
+      </c>
+      <c r="K75" t="n">
+        <v>13205</v>
+      </c>
+      <c r="L75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45400</v>
+        <v>45399</v>
       </c>
       <c r="B76" t="n">
-        <v>5011.1201</v>
+        <v>10.22</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.02589841397309778</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.02389841397309778</v>
+      </c>
+      <c r="J76" t="n">
+        <v>12129.12413956801</v>
+      </c>
+      <c r="K76" t="n">
+        <v>13178</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-0.002044680045437341</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B77" t="n">
-        <v>4967.23</v>
+        <v>10.42</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.01956947162426603</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.01756947162426603</v>
+      </c>
+      <c r="J77" t="n">
+        <v>12366.48469024448</v>
+      </c>
+      <c r="K77" t="n">
+        <v>13435</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01950220063742591</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B78" t="n">
-        <v>5010.6001</v>
+        <v>10.205</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.02063339731285985</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-0.02263339731285985</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12111.32209826727</v>
+      </c>
+      <c r="K78" t="n">
+        <v>13157</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.02069222180870856</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B79" t="n">
-        <v>5070.5498</v>
+        <v>10.43</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -2266,14 +3438,29 @@
       </c>
       <c r="G79" t="n">
         <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.02204801567858894</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.02004801567858894</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12378.35271777831</v>
+      </c>
+      <c r="K79" t="n">
+        <v>13447</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.02204149882191997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B80" t="n">
-        <v>5071.6299</v>
+        <v>10.66</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -2289,14 +3476,29 @@
       </c>
       <c r="G80" t="n">
         <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.02205177372962619</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.02005177372962619</v>
+      </c>
+      <c r="J80" t="n">
+        <v>12651.31735105626</v>
+      </c>
+      <c r="K80" t="n">
+        <v>13743</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.02201234476091329</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B81" t="n">
-        <v>5048.4199</v>
+        <v>10.55</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -2305,21 +3507,36 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.01031894934333955</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.01231894934333955</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12520.76904818419</v>
+      </c>
+      <c r="K81" t="n">
+        <v>13601</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.01033253292585312</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B82" t="n">
-        <v>5099.96</v>
+        <v>10.505</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -2328,27 +3545,42 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-0.004265402843601884</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.006265402843601884</v>
+      </c>
+      <c r="J82" t="n">
+        <v>12467.36292428199</v>
+      </c>
+      <c r="K82" t="n">
+        <v>13515</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.006323064480552865</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B83" t="n">
-        <v>5116.1699</v>
+        <v>10.985</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -2357,18 +3589,33 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.04569252736791984</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.04369252736791984</v>
+      </c>
+      <c r="J83" t="n">
+        <v>13037.02824590553</v>
+      </c>
+      <c r="K83" t="n">
+        <v>13487</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.002071772105068481</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B84" t="n">
-        <v>5035.6899</v>
+        <v>10.9</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -2380,15 +3627,30 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-0.007737824305871555</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.009737824305871555</v>
+      </c>
+      <c r="J84" t="n">
+        <v>12936.15001186803</v>
+      </c>
+      <c r="K84" t="n">
+        <v>13355</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.00978720249128795</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B85" t="n">
-        <v>5018.3901</v>
+        <v>10.175</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2403,6 +3665,21 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-0.0665137614678899</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.0685137614678899</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12075.7180156658</v>
+      </c>
+      <c r="K85" t="n">
+        <v>13355</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2411,22 +3688,37 @@
         <v>45414</v>
       </c>
       <c r="B86" t="n">
-        <v>5064.2002</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-0.03842751842751846</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.04042751842751846</v>
+      </c>
+      <c r="J86" t="n">
+        <v>11611.67813909328</v>
+      </c>
+      <c r="K86" t="n">
+        <v>13355</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2434,21 +3726,36 @@
         <v>45415</v>
       </c>
       <c r="B87" t="n">
-        <v>5127.79</v>
+        <v>9.85</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.006745707277187041</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.004745707277187041</v>
+      </c>
+      <c r="J87" t="n">
+        <v>11690.00712081652</v>
+      </c>
+      <c r="K87" t="n">
+        <v>13355</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2457,21 +3764,36 @@
         <v>45418</v>
       </c>
       <c r="B88" t="n">
-        <v>5180.7402</v>
+        <v>9.84</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-0.001015228426395898</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.003015228426395898</v>
+      </c>
+      <c r="J88" t="n">
+        <v>11678.13909328269</v>
+      </c>
+      <c r="K88" t="n">
+        <v>13355</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2480,7 +3802,7 @@
         <v>45419</v>
       </c>
       <c r="B89" t="n">
-        <v>5187.7002</v>
+        <v>10.195</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -2495,7 +3817,22 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.03607723577235777</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.03407723577235777</v>
+      </c>
+      <c r="J89" t="n">
+        <v>12099.45407073344</v>
+      </c>
+      <c r="K89" t="n">
+        <v>13328</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-0.002021714713590361</v>
       </c>
     </row>
     <row r="90">
@@ -2503,22 +3840,37 @@
         <v>45420</v>
       </c>
       <c r="B90" t="n">
-        <v>5187.6699</v>
+        <v>10.29</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.009318293281020074</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.007318293281020074</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12212.20033230477</v>
+      </c>
+      <c r="K90" t="n">
+        <v>13452</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.009303721488595373</v>
       </c>
     </row>
     <row r="91">
@@ -2526,22 +3878,37 @@
         <v>45421</v>
       </c>
       <c r="B91" t="n">
-        <v>5214.0801</v>
+        <v>9.6</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-0.06705539358600576</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.06905539358600576</v>
+      </c>
+      <c r="J91" t="n">
+        <v>11393.30643247092</v>
+      </c>
+      <c r="K91" t="n">
+        <v>12524</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.0689860243829914</v>
       </c>
     </row>
     <row r="92">
@@ -2549,21 +3916,36 @@
         <v>45422</v>
       </c>
       <c r="B92" t="n">
-        <v>5222.6802</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.01145833333333357</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.00945833333333357</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11523.85473534299</v>
+      </c>
+      <c r="K92" t="n">
+        <v>12524</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2572,21 +3954,36 @@
         <v>45425</v>
       </c>
       <c r="B93" t="n">
-        <v>5221.4199</v>
+        <v>9.724</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.001441812564366485</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.0005581874356335153</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11540.46997389034</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12524</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,7 +3992,7 @@
         <v>45426</v>
       </c>
       <c r="B94" t="n">
-        <v>5246.6802</v>
+        <v>9.9</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -2610,7 +4007,22 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.01809954751131215</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.01609954751131215</v>
+      </c>
+      <c r="J94" t="n">
+        <v>11749.34725848564</v>
+      </c>
+      <c r="K94" t="n">
+        <v>12498</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-0.00207601405301816</v>
       </c>
     </row>
     <row r="95">
@@ -2618,7 +4030,7 @@
         <v>45427</v>
       </c>
       <c r="B95" t="n">
-        <v>5308.1499</v>
+        <v>10.2</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -2634,6 +4046,21 @@
       </c>
       <c r="G95" t="n">
         <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.03030303030303028</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.02830303030303027</v>
+      </c>
+      <c r="J95" t="n">
+        <v>12105.38808450036</v>
+      </c>
+      <c r="K95" t="n">
+        <v>12876</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.03024483917426779</v>
       </c>
     </row>
     <row r="96">
@@ -2641,7 +4068,7 @@
         <v>45428</v>
       </c>
       <c r="B96" t="n">
-        <v>5297.1001</v>
+        <v>9.974</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -2650,13 +4077,28 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-0.02215686274509798</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.02415686274509798</v>
+      </c>
+      <c r="J96" t="n">
+        <v>11837.17066223594</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12565</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-0.02415346380863626</v>
       </c>
     </row>
     <row r="97">
@@ -2664,22 +4106,189 @@
         <v>45429</v>
       </c>
       <c r="B97" t="n">
-        <v>5303.27</v>
+        <v>10.02</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.004611991177060348</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.002611991177060348</v>
+      </c>
+      <c r="J97" t="n">
+        <v>11891.76358889153</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12565</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B98" t="n">
+        <v>9.932</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-0.008782435129740418</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.01078243512974042</v>
+      </c>
+      <c r="J98" t="n">
+        <v>11787.32494659388</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12565</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B99" t="n">
+        <v>9.986000000000001</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.005436971405557767</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.003436971405557767</v>
+      </c>
+      <c r="J99" t="n">
+        <v>11851.41229527653</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12565</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B100" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.002403364710594769</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.0004033647105947686</v>
+      </c>
+      <c r="J100" t="n">
+        <v>11879.8955613577</v>
+      </c>
+      <c r="K100" t="n">
+        <v>12539</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.002069239952248281</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10.035</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.002497502497502468</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.0004975024975024684</v>
+      </c>
+      <c r="J101" t="n">
+        <v>11909.56563019226</v>
+      </c>
+      <c r="K101" t="n">
+        <v>12570</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.002472286466225437</v>
       </c>
     </row>
   </sheetData>
